--- a/HealthCheckSheet.xlsx
+++ b/HealthCheckSheet.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23322"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{384DABF9-540E-41CC-A859-286872C27EB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{70F693CD-BB3A-4C18-9686-885B627CF090}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{384DABF9-540E-41CC-A859-286872C27EB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CAAC29CF-199F-488C-9E27-397A5ECD621D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="50700" windowHeight="26295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="50700" windowHeight="26295" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="活動記録シート （9月後半)" sheetId="2" r:id="rId1"/>
     <sheet name="活動記録シート （10月前半）" sheetId="3" r:id="rId2"/>
     <sheet name="活動記録シート （10月後半）" sheetId="1" r:id="rId3"/>
+    <sheet name="活動記録シート （11月前半）" sheetId="4" r:id="rId4"/>
+    <sheet name="活動記録シート （11月後半）" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'活動記録シート （10月後半）'!$A$1:$P$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'活動記録シート （10月前半）'!$A$1:$P$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'活動記録シート （11月前半）'!$A$1:$P$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'活動記録シート （11月後半）'!$A$1:$P$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'活動記録シート （9月後半)'!$A$1:$P$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'活動記録シート （10月後半）'!$A$1:$P$23</definedName>
   </definedNames>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="28">
   <si>
     <t xml:space="preserve">・　このシートは感染予防についての知識を身に着けてもらうこと、自分が感染予防および体調管理をしっかり行えていると証明する手段を確保することを目的としています。
 ・　このチェックシートは感染状況により変更する場合があります。（変更する場合はお知らせの上PandAに掲載します）
@@ -1943,10 +1947,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="M3" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1956,7 +1960,7 @@
     <col min="17" max="16384" width="14.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="93" customHeight="1">
+    <row r="1" spans="1:19" ht="93" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1975,8 +1979,11 @@
       <c r="N1" s="21"/>
       <c r="O1" s="21"/>
       <c r="P1" s="21"/>
-    </row>
-    <row r="2" spans="1:16" ht="6.95" customHeight="1">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+    </row>
+    <row r="2" spans="1:19" ht="6.95" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -1993,8 +2000,11 @@
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
-    </row>
-    <row r="3" spans="1:16" s="16" customFormat="1" ht="26.1" customHeight="1">
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+    </row>
+    <row r="3" spans="1:19" s="16" customFormat="1" ht="26.1" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -2008,7 +2018,7 @@
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
     </row>
-    <row r="4" spans="1:16" ht="39" customHeight="1">
+    <row r="4" spans="1:19" ht="39" customHeight="1">
       <c r="A4" s="16"/>
       <c r="B4" s="16" t="s">
         <v>3</v>
@@ -2029,8 +2039,11 @@
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
-    </row>
-    <row r="5" spans="1:16" s="13" customFormat="1" ht="18.95" customHeight="1">
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+    </row>
+    <row r="5" spans="1:19" s="13" customFormat="1" ht="18.95" customHeight="1">
       <c r="A5" s="29" t="s">
         <v>5</v>
       </c>
@@ -2089,11 +2102,23 @@
         <v>44131</v>
       </c>
       <c r="P5" s="15">
-        <f t="shared" ref="P5" si="1">O5+1</f>
+        <f t="shared" ref="P5:Q5" si="1">O5+1</f>
         <v>44132</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" s="13" customFormat="1" ht="18.95" customHeight="1">
+      <c r="Q5" s="15">
+        <f t="shared" si="1"/>
+        <v>44133</v>
+      </c>
+      <c r="R5" s="15">
+        <f t="shared" ref="R5" si="2">Q5+1</f>
+        <v>44134</v>
+      </c>
+      <c r="S5" s="15">
+        <f t="shared" ref="S5" si="3">R5+1</f>
+        <v>44135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="13" customFormat="1" ht="18.95" customHeight="1">
       <c r="A6" s="30"/>
       <c r="B6" s="19">
         <f>B5</f>
@@ -2104,59 +2129,71 @@
         <v>44119</v>
       </c>
       <c r="D6" s="17">
-        <f t="shared" ref="D6:O6" si="2">D5</f>
+        <f t="shared" ref="D6:O6" si="4">D5</f>
         <v>44120</v>
       </c>
       <c r="E6" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44121</v>
       </c>
       <c r="F6" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44122</v>
       </c>
       <c r="G6" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44123</v>
       </c>
       <c r="H6" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44124</v>
       </c>
       <c r="I6" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44125</v>
       </c>
       <c r="J6" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44126</v>
       </c>
       <c r="K6" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44127</v>
       </c>
       <c r="L6" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44128</v>
       </c>
       <c r="M6" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44129</v>
       </c>
       <c r="N6" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44130</v>
       </c>
       <c r="O6" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44131</v>
       </c>
       <c r="P6" s="17">
-        <f t="shared" ref="P6" si="3">P5</f>
+        <f t="shared" ref="P6:Q6" si="5">P5</f>
         <v>44132</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="29.1" customHeight="1">
+      <c r="Q6" s="17">
+        <f t="shared" si="5"/>
+        <v>44133</v>
+      </c>
+      <c r="R6" s="17">
+        <f t="shared" ref="R6:S6" si="6">R5</f>
+        <v>44134</v>
+      </c>
+      <c r="S6" s="17">
+        <f t="shared" si="6"/>
+        <v>44135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="29.1" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -2177,8 +2214,11 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" ht="29.1" customHeight="1">
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" ht="29.1" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -2199,8 +2239,11 @@
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
       <c r="P8" s="20"/>
-    </row>
-    <row r="9" spans="1:16" ht="29.1" customHeight="1">
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+    </row>
+    <row r="9" spans="1:19" ht="29.1" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -2221,8 +2264,11 @@
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
       <c r="P9" s="20"/>
-    </row>
-    <row r="10" spans="1:16" ht="29.1" customHeight="1">
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+    </row>
+    <row r="10" spans="1:19" ht="29.1" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
@@ -2243,8 +2289,11 @@
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
       <c r="P10" s="20"/>
-    </row>
-    <row r="11" spans="1:16" ht="29.1" customHeight="1">
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+    </row>
+    <row r="11" spans="1:19" ht="29.1" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
@@ -2265,8 +2314,11 @@
       <c r="N11" s="20"/>
       <c r="O11" s="20"/>
       <c r="P11" s="20"/>
-    </row>
-    <row r="12" spans="1:16" ht="29.1" customHeight="1">
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+    </row>
+    <row r="12" spans="1:19" ht="29.1" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
@@ -2287,8 +2339,11 @@
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
-    </row>
-    <row r="13" spans="1:16" ht="29.1" customHeight="1">
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+    </row>
+    <row r="13" spans="1:19" ht="29.1" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
@@ -2309,8 +2364,11 @@
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
-    </row>
-    <row r="14" spans="1:16" ht="29.1" customHeight="1">
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+    </row>
+    <row r="14" spans="1:19" ht="29.1" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
@@ -2331,8 +2389,11 @@
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
-    </row>
-    <row r="15" spans="1:16" s="16" customFormat="1" ht="48.75" customHeight="1">
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+    </row>
+    <row r="15" spans="1:19" s="16" customFormat="1" ht="48.75" customHeight="1">
       <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
@@ -2353,8 +2414,11 @@
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
-    </row>
-    <row r="16" spans="1:16" ht="48.75" customHeight="1">
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+    </row>
+    <row r="16" spans="1:19" ht="48.75" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>19</v>
       </c>
@@ -2375,8 +2439,11 @@
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
-    </row>
-    <row r="17" spans="1:16" ht="48.75" customHeight="1">
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+    </row>
+    <row r="17" spans="1:19" ht="48.75" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>21</v>
       </c>
@@ -2397,8 +2464,11 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-    </row>
-    <row r="18" spans="1:16" ht="9" customHeight="1">
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+    </row>
+    <row r="18" spans="1:19" ht="9" customHeight="1">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -2415,7 +2485,575 @@
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
-    </row>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+    </row>
+    <row r="19" spans="1:19" ht="34.5" customHeight="1">
+      <c r="A19" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+    </row>
+    <row r="20" spans="1:19" s="24" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+    </row>
+    <row r="21" spans="1:19" s="24" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="10"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+    </row>
+    <row r="22" spans="1:19" s="24" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="10"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+    </row>
+    <row r="23" spans="1:19" s="24" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A23" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+    </row>
+    <row r="24" spans="1:19" s="9" customFormat="1" ht="12">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="H3:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="B8:S13" xr:uid="{4D3FF321-A2C2-4ACE-A80A-A42A9648D863}">
+      <formula1>",あり,-"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9F7548-9FEB-49D3-942C-25D18D6EE532}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P24"/>
+  <sheetViews>
+    <sheetView topLeftCell="K4" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="19" style="16" customWidth="1"/>
+    <col min="2" max="16" width="13.140625" style="16" customWidth="1"/>
+    <col min="17" max="16384" width="14.42578125" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="93" customHeight="1">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+    </row>
+    <row r="2" spans="1:16" ht="6.95" customHeight="1">
+      <c r="A2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" ht="26.1" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="G3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="1:16" ht="39" customHeight="1">
+      <c r="B4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="13" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A5" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="18">
+        <v>44063</v>
+      </c>
+      <c r="C5" s="15">
+        <v>44136</v>
+      </c>
+      <c r="D5" s="15">
+        <f>C5+1</f>
+        <v>44137</v>
+      </c>
+      <c r="E5" s="15">
+        <f t="shared" ref="E5:P5" si="0">D5+1</f>
+        <v>44138</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" si="0"/>
+        <v>44139</v>
+      </c>
+      <c r="G5" s="15">
+        <f t="shared" si="0"/>
+        <v>44140</v>
+      </c>
+      <c r="H5" s="15">
+        <f t="shared" si="0"/>
+        <v>44141</v>
+      </c>
+      <c r="I5" s="15">
+        <f t="shared" si="0"/>
+        <v>44142</v>
+      </c>
+      <c r="J5" s="15">
+        <f t="shared" si="0"/>
+        <v>44143</v>
+      </c>
+      <c r="K5" s="15">
+        <f t="shared" si="0"/>
+        <v>44144</v>
+      </c>
+      <c r="L5" s="15">
+        <f t="shared" si="0"/>
+        <v>44145</v>
+      </c>
+      <c r="M5" s="15">
+        <f t="shared" si="0"/>
+        <v>44146</v>
+      </c>
+      <c r="N5" s="15">
+        <f t="shared" si="0"/>
+        <v>44147</v>
+      </c>
+      <c r="O5" s="15">
+        <f t="shared" si="0"/>
+        <v>44148</v>
+      </c>
+      <c r="P5" s="15">
+        <f t="shared" si="0"/>
+        <v>44149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="13" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A6" s="30"/>
+      <c r="B6" s="19">
+        <f>B5</f>
+        <v>44063</v>
+      </c>
+      <c r="C6" s="17">
+        <f>C5</f>
+        <v>44136</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" ref="D6:P6" si="1">D5</f>
+        <v>44137</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" si="1"/>
+        <v>44138</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="1"/>
+        <v>44139</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="1"/>
+        <v>44140</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" si="1"/>
+        <v>44141</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" si="1"/>
+        <v>44142</v>
+      </c>
+      <c r="J6" s="17">
+        <f t="shared" si="1"/>
+        <v>44143</v>
+      </c>
+      <c r="K6" s="17">
+        <f t="shared" si="1"/>
+        <v>44144</v>
+      </c>
+      <c r="L6" s="17">
+        <f t="shared" si="1"/>
+        <v>44145</v>
+      </c>
+      <c r="M6" s="17">
+        <f t="shared" si="1"/>
+        <v>44146</v>
+      </c>
+      <c r="N6" s="17">
+        <f t="shared" si="1"/>
+        <v>44147</v>
+      </c>
+      <c r="O6" s="17">
+        <f t="shared" si="1"/>
+        <v>44148</v>
+      </c>
+      <c r="P6" s="17">
+        <f t="shared" si="1"/>
+        <v>44149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="29.1" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" ht="29.1" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+    </row>
+    <row r="9" spans="1:16" ht="29.1" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+    </row>
+    <row r="10" spans="1:16" ht="29.1" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+    </row>
+    <row r="11" spans="1:16" ht="29.1" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+    </row>
+    <row r="12" spans="1:16" ht="29.1" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+    </row>
+    <row r="13" spans="1:16" ht="29.1" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+    </row>
+    <row r="14" spans="1:16" ht="29.1" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+    </row>
+    <row r="15" spans="1:16" ht="48.75" customHeight="1">
+      <c r="A15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+    </row>
+    <row r="16" spans="1:16" ht="48.75" customHeight="1">
+      <c r="A16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+    </row>
+    <row r="17" spans="1:16" ht="48.75" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="1:16" ht="9" customHeight="1"/>
     <row r="19" spans="1:16" ht="34.5" customHeight="1">
       <c r="A19" s="31" t="s">
         <v>23</v>
@@ -2528,19 +3166,619 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B3:E3"/>
     <mergeCell ref="A19:P19"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="B8:P13" xr:uid="{4D3FF321-A2C2-4ACE-A80A-A42A9648D863}">
+    <dataValidation type="list" allowBlank="1" sqref="B8:P13" xr:uid="{295D1110-EE3B-4B24-8ABE-5E3A76BEACF7}">
       <formula1>",あり,-"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A81A7B-0EEC-406B-AAEB-BEC83BB73051}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:R24"/>
+  <sheetViews>
+    <sheetView topLeftCell="L3" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5:R17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="19" style="16" customWidth="1"/>
+    <col min="2" max="16" width="13.140625" style="16" customWidth="1"/>
+    <col min="17" max="16384" width="14.42578125" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="93" customHeight="1">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+    </row>
+    <row r="2" spans="1:18" ht="6.95" customHeight="1">
+      <c r="A2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" ht="26.1" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="G3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="1:18" ht="39" customHeight="1">
+      <c r="B4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="13" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A5" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="18">
+        <v>44063</v>
+      </c>
+      <c r="C5" s="15">
+        <v>44150</v>
+      </c>
+      <c r="D5" s="15">
+        <f>C5+1</f>
+        <v>44151</v>
+      </c>
+      <c r="E5" s="15">
+        <f t="shared" ref="E5:P5" si="0">D5+1</f>
+        <v>44152</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" si="0"/>
+        <v>44153</v>
+      </c>
+      <c r="G5" s="15">
+        <f t="shared" si="0"/>
+        <v>44154</v>
+      </c>
+      <c r="H5" s="15">
+        <f t="shared" si="0"/>
+        <v>44155</v>
+      </c>
+      <c r="I5" s="15">
+        <f t="shared" si="0"/>
+        <v>44156</v>
+      </c>
+      <c r="J5" s="15">
+        <f t="shared" si="0"/>
+        <v>44157</v>
+      </c>
+      <c r="K5" s="15">
+        <f t="shared" si="0"/>
+        <v>44158</v>
+      </c>
+      <c r="L5" s="15">
+        <f t="shared" si="0"/>
+        <v>44159</v>
+      </c>
+      <c r="M5" s="15">
+        <f t="shared" si="0"/>
+        <v>44160</v>
+      </c>
+      <c r="N5" s="15">
+        <f t="shared" si="0"/>
+        <v>44161</v>
+      </c>
+      <c r="O5" s="15">
+        <f t="shared" si="0"/>
+        <v>44162</v>
+      </c>
+      <c r="P5" s="15">
+        <f t="shared" si="0"/>
+        <v>44163</v>
+      </c>
+      <c r="Q5" s="15">
+        <f t="shared" ref="Q5" si="1">P5+1</f>
+        <v>44164</v>
+      </c>
+      <c r="R5" s="15">
+        <f t="shared" ref="R5" si="2">Q5+1</f>
+        <v>44165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="13" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A6" s="30"/>
+      <c r="B6" s="19">
+        <f>B5</f>
+        <v>44063</v>
+      </c>
+      <c r="C6" s="17">
+        <f>C5</f>
+        <v>44150</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" ref="D6:P6" si="3">D5</f>
+        <v>44151</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" si="3"/>
+        <v>44152</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="3"/>
+        <v>44153</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="3"/>
+        <v>44154</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" si="3"/>
+        <v>44155</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" si="3"/>
+        <v>44156</v>
+      </c>
+      <c r="J6" s="17">
+        <f t="shared" si="3"/>
+        <v>44157</v>
+      </c>
+      <c r="K6" s="17">
+        <f t="shared" si="3"/>
+        <v>44158</v>
+      </c>
+      <c r="L6" s="17">
+        <f t="shared" si="3"/>
+        <v>44159</v>
+      </c>
+      <c r="M6" s="17">
+        <f t="shared" si="3"/>
+        <v>44160</v>
+      </c>
+      <c r="N6" s="17">
+        <f t="shared" si="3"/>
+        <v>44161</v>
+      </c>
+      <c r="O6" s="17">
+        <f t="shared" si="3"/>
+        <v>44162</v>
+      </c>
+      <c r="P6" s="17">
+        <f t="shared" si="3"/>
+        <v>44163</v>
+      </c>
+      <c r="Q6" s="17">
+        <f t="shared" ref="Q6:R6" si="4">Q5</f>
+        <v>44164</v>
+      </c>
+      <c r="R6" s="17">
+        <f t="shared" si="4"/>
+        <v>44165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="29.1" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" ht="29.1" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+    </row>
+    <row r="9" spans="1:18" ht="29.1" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+    </row>
+    <row r="10" spans="1:18" ht="29.1" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+    </row>
+    <row r="11" spans="1:18" ht="29.1" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+    </row>
+    <row r="12" spans="1:18" ht="29.1" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+    </row>
+    <row r="13" spans="1:18" ht="29.1" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+    </row>
+    <row r="14" spans="1:18" ht="29.1" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+    </row>
+    <row r="15" spans="1:18" ht="48.75" customHeight="1">
+      <c r="A15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+    </row>
+    <row r="16" spans="1:18" ht="48.75" customHeight="1">
+      <c r="A16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+    </row>
+    <row r="17" spans="1:18" ht="48.75" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="1:18" ht="9" customHeight="1"/>
+    <row r="19" spans="1:18" ht="34.5" customHeight="1">
+      <c r="A19" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+    </row>
+    <row r="20" spans="1:18" s="24" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+    </row>
+    <row r="21" spans="1:18" s="24" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="10"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+    </row>
+    <row r="22" spans="1:18" s="24" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="10"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+    </row>
+    <row r="23" spans="1:18" s="24" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A23" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+    </row>
+    <row r="24" spans="1:18" s="9" customFormat="1" ht="12">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A19:P19"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="B8:R13" xr:uid="{7011713F-A5D3-4F79-925C-6F5AB880F193}">
+      <formula1>",あり,-"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape"/>
 </worksheet>
 </file>